--- a/RUDN/Importance/Varible_reg_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Northern America.xlsx
@@ -14,135 +14,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
     <t>Urban population</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
   </si>
 </sst>
 </file>
@@ -500,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2222222238779068</v>
+        <v>0.1450924575328827</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09876543283462524</v>
+        <v>0.06258890777826309</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06172839552164078</v>
+        <v>0.06258890777826309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0555555559694767</v>
+        <v>0.05547652766108513</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04938271641731262</v>
+        <v>0.04978662729263306</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03703703731298447</v>
+        <v>0.04836415499448776</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03086419776082039</v>
+        <v>0.0412517786026001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03086419776082039</v>
+        <v>0.03556187823414803</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03086419776082039</v>
+        <v>0.03556187823414803</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03086419776082039</v>
+        <v>0.02844950184226036</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03086419776082039</v>
+        <v>0.02844950184226036</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03086419776082039</v>
+        <v>0.02418207749724388</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03086419776082039</v>
+        <v>0.02133712731301785</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -620,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02469135820865631</v>
+        <v>0.01706970110535622</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -628,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02469135820865631</v>
+        <v>0.01564722694456577</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01851851865649223</v>
+        <v>0.01564722694456577</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01234567910432816</v>
+        <v>0.01422475092113018</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01234567910432816</v>
+        <v>0.01280227582901716</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01234567910432816</v>
+        <v>0.01280227582901716</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01234567910432816</v>
+        <v>0.01280227582901716</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -676,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.006172839552164078</v>
+        <v>0.009957325644791126</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -684,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.006172839552164078</v>
+        <v>0.009957325644791126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.006172839552164078</v>
+        <v>0.008534850552678108</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.006172839552164078</v>
+        <v>0.008534850552678108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.006172839552164078</v>
+        <v>0.008534850552678108</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.006172839552164078</v>
+        <v>0.00711237546056509</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.006172839552164078</v>
+        <v>0.00711237546056509</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.006172839552164078</v>
+        <v>0.00711237546056509</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006172839552164078</v>
+        <v>0.00711237546056509</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +935,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +959,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.006172839552164078</v>
+        <v>0.005689900368452072</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,7 +999,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.006172839552164078</v>
+        <v>0.004267425276339054</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -836,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.006172839552164078</v>
+        <v>0.004267425276339054</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -844,7 +1015,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.006172839552164078</v>
+        <v>0.004267425276339054</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -852,7 +1023,463 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.006172839552164078</v>
+        <v>0.004267425276339054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.004267425276339054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.004267425276339054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.004267425276339054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.004267425276339054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.002844950184226036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.001422475092113018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.001422475092113018</v>
       </c>
     </row>
   </sheetData>
